--- a/exercicios/1.4-exercicio-optus/Modelagem/Exercicio1.4-optus-FÍSICO.xlsx
+++ b/exercicios/1.4-exercicio-optus/Modelagem/Exercicio1.4-optus-FÍSICO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/480d5ffb018c6fc9/Documentos/SENAI/Banco-de-Dados/exercicios/1.4-exercicio-optus/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="11_AD4D361C20488DEA4E38A0CD341D69CE5ADEDD9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E602D795-A052-4D4C-B2FE-204CD27C4B9C}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="11_AD4D361C20488DEA4E38A0CD341D69CE5ADEDD9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B9396EC-B37E-4B72-B725-9AF25A877C8A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12765" yWindow="300" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>EMPRESA OPTUS</t>
   </si>
@@ -142,6 +142,33 @@
   </si>
   <si>
     <t>Comum</t>
+  </si>
+  <si>
+    <t>DataLancamento</t>
+  </si>
+  <si>
+    <t>Localizacao</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>EstadoVisualizacao</t>
+  </si>
+  <si>
+    <t>São Paulo - SP</t>
+  </si>
+  <si>
+    <t>Campo Grande - MS</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro - RJ</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Não-Ativo</t>
   </si>
 </sst>
 </file>
@@ -419,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -545,6 +572,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -826,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,8 +868,10 @@
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -993,14 +1025,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="F8" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="L8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="2"/>
+      <c r="C8" s="62"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1009,32 +1034,26 @@
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>17</v>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1044,32 +1063,26 @@
       <c r="B10" s="19">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="13">
+        <v>22</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="E10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="8">
-        <v>55</v>
-      </c>
-      <c r="G10" s="48">
-        <v>20</v>
-      </c>
-      <c r="H10" s="35">
-        <v>8</v>
+      <c r="F10" s="63">
+        <v>44397</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="13">
+        <v>90</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="42">
-        <v>20</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1079,32 +1092,26 @@
       <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="14">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="E11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="9">
-        <v>56</v>
-      </c>
-      <c r="G11" s="49">
-        <v>21</v>
+      <c r="F11" s="64">
+        <v>44357</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>43</v>
       </c>
       <c r="H11" s="14">
-        <v>7</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="44">
-        <v>21</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>21</v>
+        <v>85</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1114,32 +1121,26 @@
       <c r="B12" s="28">
         <v>3</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="14">
+        <v>21</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="9">
-        <v>57</v>
-      </c>
-      <c r="G12" s="51">
-        <v>22</v>
+      <c r="F12" s="64">
+        <v>44270</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>44</v>
       </c>
       <c r="H12" s="14">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="46">
-        <v>22</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1149,26 +1150,26 @@
       <c r="B13" s="29">
         <v>2</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="15">
+        <v>20</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="E13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="10">
-        <v>58</v>
-      </c>
-      <c r="G13" s="51">
-        <v>22</v>
+      <c r="F13" s="65">
+        <v>43663</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>45</v>
       </c>
       <c r="H13" s="15">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="34"/>
@@ -1177,8 +1178,124 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="62"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>55</v>
+      </c>
+      <c r="B18" s="48">
+        <v>20</v>
+      </c>
+      <c r="C18" s="35">
+        <v>8</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>56</v>
+      </c>
+      <c r="B19" s="49">
+        <v>21</v>
+      </c>
+      <c r="C19" s="14">
+        <v>7</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="42">
+        <v>20</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>57</v>
+      </c>
+      <c r="B20" s="51">
+        <v>22</v>
+      </c>
+      <c r="C20" s="14">
+        <v>5</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="44">
+        <v>21</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>58</v>
+      </c>
+      <c r="B21" s="51">
+        <v>22</v>
+      </c>
+      <c r="C21" s="15">
+        <v>6</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="46">
+        <v>22</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1187,5 +1304,6 @@
     <hyperlink ref="K5" r:id="rId3" xr:uid="{7E9547F7-17C0-451F-AFCE-A1B00B11D5DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>